--- a/data/pop_consolidate.xlsx
+++ b/data/pop_consolidate.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="68">
   <si>
     <t>Estimated Resident Population ;  Male ;  New South Wales ;</t>
   </si>
@@ -245,6 +245,9 @@
   <si>
     <t>A2060842F</t>
   </si>
+  <si>
+    <t>Ratio June 2013</t>
+  </si>
 </sst>
 </file>
 
@@ -317,8 +320,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -365,7 +372,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="25">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -376,6 +383,8 @@
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -386,6 +395,8 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -715,18 +726,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB154"/>
+  <dimension ref="A1:AC154"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="AA14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="10" topLeftCell="AA11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="AB24" sqref="AB24"/>
+      <selection pane="bottomRight" activeCell="AC18" sqref="AC18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:28" ht="71">
+    <row r="1" spans="1:29" ht="71">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -809,8 +820,11 @@
       <c r="AB1" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:28">
+      <c r="AC1" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
       <c r="A2" s="3" t="s">
         <v>27</v>
       </c>
@@ -896,7 +910,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:29">
       <c r="A3" s="3" t="s">
         <v>29</v>
       </c>
@@ -982,7 +996,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:29">
       <c r="A4" s="3" t="s">
         <v>31</v>
       </c>
@@ -1068,7 +1082,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:29">
       <c r="A5" s="3" t="s">
         <v>33</v>
       </c>
@@ -1154,7 +1168,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:29">
       <c r="A6" s="3" t="s">
         <v>35</v>
       </c>
@@ -1240,7 +1254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:29">
       <c r="A7" s="6" t="s">
         <v>36</v>
       </c>
@@ -1326,7 +1340,7 @@
         <v>29738</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:29">
       <c r="A8" s="6" t="s">
         <v>37</v>
       </c>
@@ -1412,7 +1426,7 @@
         <v>41518</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:29">
       <c r="A9" s="3" t="s">
         <v>38</v>
       </c>
@@ -1498,7 +1512,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:29">
       <c r="A10" s="3" t="s">
         <v>39</v>
       </c>
@@ -1584,7 +1598,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:29">
       <c r="A11" s="8">
         <v>24625</v>
       </c>
@@ -1669,8 +1683,12 @@
       <c r="AB11" s="10">
         <v>11799078</v>
       </c>
-    </row>
-    <row r="12" spans="1:28">
+      <c r="AC11">
+        <f>$AB$153/AB11</f>
+        <v>1.960770239844164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
       <c r="A12" s="8">
         <v>24990</v>
       </c>
@@ -1755,8 +1773,12 @@
       <c r="AB12" s="10">
         <v>12008635</v>
       </c>
-    </row>
-    <row r="13" spans="1:28">
+      <c r="AC12">
+        <f t="shared" ref="AC12:AC75" si="0">$AB$153/AB12</f>
+        <v>1.9265537673515767</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
       <c r="A13" s="8">
         <v>25355</v>
       </c>
@@ -1841,8 +1863,12 @@
       <c r="AB13" s="10">
         <v>12263014</v>
       </c>
-    </row>
-    <row r="14" spans="1:28">
+      <c r="AC13">
+        <f t="shared" si="0"/>
+        <v>1.8865901156110561</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
       <c r="A14" s="8">
         <v>25720</v>
       </c>
@@ -1927,8 +1953,12 @@
       <c r="AB14" s="10">
         <v>12507349</v>
       </c>
-    </row>
-    <row r="15" spans="1:28">
+      <c r="AC14">
+        <f t="shared" si="0"/>
+        <v>1.8497349838083195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29">
       <c r="A15" s="8">
         <v>26085</v>
       </c>
@@ -2013,8 +2043,12 @@
       <c r="AB15" s="11">
         <v>13067265</v>
       </c>
-    </row>
-    <row r="16" spans="1:28">
+      <c r="AC15">
+        <f t="shared" si="0"/>
+        <v>1.7704761478396589</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
       <c r="A16" s="8">
         <v>26451</v>
       </c>
@@ -2099,8 +2133,12 @@
       <c r="AB16" s="10">
         <v>13303664</v>
       </c>
-    </row>
-    <row r="17" spans="1:28">
+      <c r="AC16">
+        <f t="shared" si="0"/>
+        <v>1.7390157328086457</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29">
       <c r="A17" s="8">
         <v>26816</v>
       </c>
@@ -2185,8 +2223,12 @@
       <c r="AB17" s="12">
         <v>13504538</v>
       </c>
-    </row>
-    <row r="18" spans="1:28">
+      <c r="AC17">
+        <f t="shared" si="0"/>
+        <v>1.7131486467734032</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29">
       <c r="A18" s="8">
         <v>27181</v>
       </c>
@@ -2271,8 +2313,12 @@
       <c r="AB18" s="10">
         <v>13722571</v>
       </c>
-    </row>
-    <row r="19" spans="1:28">
+      <c r="AC18">
+        <f t="shared" si="0"/>
+        <v>1.6859290434715186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29">
       <c r="A19" s="8">
         <v>27546</v>
       </c>
@@ -2357,8 +2403,12 @@
       <c r="AB19" s="10">
         <v>13892995</v>
       </c>
-    </row>
-    <row r="20" spans="1:28">
+      <c r="AC19">
+        <f t="shared" si="0"/>
+        <v>1.6652479181054913</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29">
       <c r="A20" s="8">
         <v>27912</v>
       </c>
@@ -2443,8 +2493,12 @@
       <c r="AB20" s="10">
         <v>14033083</v>
       </c>
-    </row>
-    <row r="21" spans="1:28">
+      <c r="AC20">
+        <f t="shared" si="0"/>
+        <v>1.6486242545561798</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29">
       <c r="A21" s="8">
         <v>28277</v>
       </c>
@@ -2529,8 +2583,12 @@
       <c r="AB21" s="10">
         <v>14192234</v>
       </c>
-    </row>
-    <row r="22" spans="1:28">
+      <c r="AC21">
+        <f t="shared" si="0"/>
+        <v>1.6301366648830622</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29">
       <c r="A22" s="8">
         <v>28642</v>
       </c>
@@ -2615,8 +2673,12 @@
       <c r="AB22" s="10">
         <v>14359255</v>
       </c>
-    </row>
-    <row r="23" spans="1:28">
+      <c r="AC22">
+        <f t="shared" si="0"/>
+        <v>1.6111755797915699</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29">
       <c r="A23" s="8">
         <v>29007</v>
       </c>
@@ -2701,8 +2763,12 @@
       <c r="AB23" s="10">
         <v>14515729</v>
       </c>
-    </row>
-    <row r="24" spans="1:28">
+      <c r="AC23">
+        <f t="shared" si="0"/>
+        <v>1.5938077240213013</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29">
       <c r="A24" s="8">
         <v>29373</v>
       </c>
@@ -2787,8 +2853,12 @@
       <c r="AB24" s="10">
         <v>14695356</v>
       </c>
-    </row>
-    <row r="25" spans="1:28">
+      <c r="AC24">
+        <f t="shared" si="0"/>
+        <v>1.5743259979547279</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29">
       <c r="A25" s="8">
         <v>29738</v>
       </c>
@@ -2873,8 +2943,12 @@
       <c r="AB25" s="9">
         <v>14923260</v>
       </c>
-    </row>
-    <row r="26" spans="1:28">
+      <c r="AC25">
+        <f t="shared" si="0"/>
+        <v>1.5502833161118952</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29">
       <c r="A26" s="8">
         <v>29830</v>
       </c>
@@ -2959,8 +3033,12 @@
       <c r="AB26" s="9">
         <v>14988677</v>
       </c>
-    </row>
-    <row r="27" spans="1:28">
+      <c r="AC26">
+        <f t="shared" si="0"/>
+        <v>1.5435172163627251</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29">
       <c r="A27" s="8">
         <v>29921</v>
       </c>
@@ -3045,8 +3123,12 @@
       <c r="AB27" s="9">
         <v>15054117</v>
       </c>
-    </row>
-    <row r="28" spans="1:28">
+      <c r="AC27">
+        <f t="shared" si="0"/>
+        <v>1.5368075723072965</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29">
       <c r="A28" s="8">
         <v>30011</v>
       </c>
@@ -3131,8 +3213,12 @@
       <c r="AB28" s="9">
         <v>15121698</v>
       </c>
-    </row>
-    <row r="29" spans="1:28">
+      <c r="AC28">
+        <f t="shared" si="0"/>
+        <v>1.5299393626297788</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29">
       <c r="A29" s="8">
         <v>30103</v>
       </c>
@@ -3217,8 +3303,12 @@
       <c r="AB29" s="9">
         <v>15184247</v>
       </c>
-    </row>
-    <row r="30" spans="1:28">
+      <c r="AC29">
+        <f t="shared" si="0"/>
+        <v>1.5236370298770825</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29">
       <c r="A30" s="8">
         <v>30195</v>
       </c>
@@ -3303,8 +3393,12 @@
       <c r="AB30" s="9">
         <v>15239278</v>
       </c>
-    </row>
-    <row r="31" spans="1:28">
+      <c r="AC30">
+        <f t="shared" si="0"/>
+        <v>1.5181349798855299</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29">
       <c r="A31" s="8">
         <v>30286</v>
       </c>
@@ -3389,8 +3483,12 @@
       <c r="AB31" s="9">
         <v>15288891</v>
       </c>
-    </row>
-    <row r="32" spans="1:28">
+      <c r="AC31">
+        <f t="shared" si="0"/>
+        <v>1.5132085773912576</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29">
       <c r="A32" s="8">
         <v>30376</v>
       </c>
@@ -3475,8 +3573,12 @@
       <c r="AB32" s="9">
         <v>15346242</v>
       </c>
-    </row>
-    <row r="33" spans="1:28">
+      <c r="AC32">
+        <f t="shared" si="0"/>
+        <v>1.5075535104946214</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29">
       <c r="A33" s="8">
         <v>30468</v>
       </c>
@@ -3561,8 +3663,12 @@
       <c r="AB33" s="9">
         <v>15393472</v>
       </c>
-    </row>
-    <row r="34" spans="1:28">
+      <c r="AC33">
+        <f t="shared" si="0"/>
+        <v>1.5029280593747791</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29">
       <c r="A34" s="8">
         <v>30560</v>
       </c>
@@ -3647,8 +3753,12 @@
       <c r="AB34" s="9">
         <v>15439005</v>
       </c>
-    </row>
-    <row r="35" spans="1:28">
+      <c r="AC34">
+        <f t="shared" si="0"/>
+        <v>1.4984955960568702</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29">
       <c r="A35" s="8">
         <v>30651</v>
       </c>
@@ -3733,8 +3843,12 @@
       <c r="AB35" s="9">
         <v>15483496</v>
       </c>
-    </row>
-    <row r="36" spans="1:28">
+      <c r="AC35">
+        <f t="shared" si="0"/>
+        <v>1.4941897488784186</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29">
       <c r="A36" s="8">
         <v>30742</v>
       </c>
@@ -3819,8 +3933,12 @@
       <c r="AB36" s="9">
         <v>15531541</v>
       </c>
-    </row>
-    <row r="37" spans="1:28">
+      <c r="AC36">
+        <f t="shared" si="0"/>
+        <v>1.4895676481812075</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29">
       <c r="A37" s="8">
         <v>30834</v>
       </c>
@@ -3905,8 +4023,12 @@
       <c r="AB37" s="9">
         <v>15579391</v>
       </c>
-    </row>
-    <row r="38" spans="1:28">
+      <c r="AC37">
+        <f t="shared" si="0"/>
+        <v>1.4849926418818296</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29">
       <c r="A38" s="8">
         <v>30926</v>
       </c>
@@ -3991,8 +4113,12 @@
       <c r="AB38" s="9">
         <v>15628548</v>
       </c>
-    </row>
-    <row r="39" spans="1:28">
+      <c r="AC38">
+        <f t="shared" si="0"/>
+        <v>1.4803218443581578</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29">
       <c r="A39" s="8">
         <v>31017</v>
       </c>
@@ -4077,8 +4203,12 @@
       <c r="AB39" s="9">
         <v>15677282</v>
       </c>
-    </row>
-    <row r="40" spans="1:28">
+      <c r="AC39">
+        <f t="shared" si="0"/>
+        <v>1.4757201535317155</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29">
       <c r="A40" s="8">
         <v>31107</v>
       </c>
@@ -4163,8 +4293,12 @@
       <c r="AB40" s="9">
         <v>15736665</v>
       </c>
-    </row>
-    <row r="41" spans="1:28">
+      <c r="AC40">
+        <f t="shared" si="0"/>
+        <v>1.4701514583935034</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29">
       <c r="A41" s="8">
         <v>31199</v>
       </c>
@@ -4249,8 +4383,12 @@
       <c r="AB41" s="9">
         <v>15788312</v>
       </c>
-    </row>
-    <row r="42" spans="1:28">
+      <c r="AC41">
+        <f t="shared" si="0"/>
+        <v>1.4653422734488653</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29">
       <c r="A42" s="8">
         <v>31291</v>
       </c>
@@ -4335,8 +4473,12 @@
       <c r="AB42" s="9">
         <v>15839702</v>
       </c>
-    </row>
-    <row r="43" spans="1:28">
+      <c r="AC42">
+        <f t="shared" si="0"/>
+        <v>1.4605881474285312</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29">
       <c r="A43" s="8">
         <v>31382</v>
       </c>
@@ -4421,8 +4563,12 @@
       <c r="AB43" s="9">
         <v>15900566</v>
       </c>
-    </row>
-    <row r="44" spans="1:28">
+      <c r="AC43">
+        <f t="shared" si="0"/>
+        <v>1.4549973252524471</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29">
       <c r="A44" s="8">
         <v>31472</v>
       </c>
@@ -4507,8 +4653,12 @@
       <c r="AB44" s="9">
         <v>15961498</v>
       </c>
-    </row>
-    <row r="45" spans="1:28">
+      <c r="AC44">
+        <f t="shared" si="0"/>
+        <v>1.4494429658168675</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29">
       <c r="A45" s="8">
         <v>31564</v>
       </c>
@@ -4593,8 +4743,12 @@
       <c r="AB45" s="9">
         <v>16018350</v>
       </c>
-    </row>
-    <row r="46" spans="1:28">
+      <c r="AC45">
+        <f t="shared" si="0"/>
+        <v>1.4442986325058449</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29">
       <c r="A46" s="8">
         <v>31656</v>
       </c>
@@ -4679,8 +4833,12 @@
       <c r="AB46" s="9">
         <v>16075041</v>
       </c>
-    </row>
-    <row r="47" spans="1:28">
+      <c r="AC46">
+        <f t="shared" si="0"/>
+        <v>1.4392051006277371</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29">
       <c r="A47" s="8">
         <v>31747</v>
       </c>
@@ -4765,8 +4923,12 @@
       <c r="AB47" s="9">
         <v>16138769</v>
       </c>
-    </row>
-    <row r="48" spans="1:28">
+      <c r="AC47">
+        <f t="shared" si="0"/>
+        <v>1.4335220362841801</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29">
       <c r="A48" s="8">
         <v>31837</v>
       </c>
@@ -4851,8 +5013,12 @@
       <c r="AB48" s="9">
         <v>16204041</v>
       </c>
-    </row>
-    <row r="49" spans="1:28">
+      <c r="AC48">
+        <f t="shared" si="0"/>
+        <v>1.427747621719792</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29">
       <c r="A49" s="8">
         <v>31929</v>
       </c>
@@ -4937,8 +5103,12 @@
       <c r="AB49" s="9">
         <v>16263874</v>
       </c>
-    </row>
-    <row r="50" spans="1:28">
+      <c r="AC49">
+        <f t="shared" si="0"/>
+        <v>1.4224950955719406</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29">
       <c r="A50" s="8">
         <v>32021</v>
       </c>
@@ -5023,8 +5193,12 @@
       <c r="AB50" s="9">
         <v>16328866</v>
       </c>
-    </row>
-    <row r="51" spans="1:28">
+      <c r="AC50">
+        <f t="shared" si="0"/>
+        <v>1.4168332938735611</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29">
       <c r="A51" s="8">
         <v>32112</v>
       </c>
@@ -5109,8 +5283,12 @@
       <c r="AB51" s="9">
         <v>16394641</v>
       </c>
-    </row>
-    <row r="52" spans="1:28">
+      <c r="AC51">
+        <f t="shared" si="0"/>
+        <v>1.4111489845980769</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29">
       <c r="A52" s="8">
         <v>32203</v>
       </c>
@@ -5195,8 +5373,12 @@
       <c r="AB52" s="9">
         <v>16471767</v>
       </c>
-    </row>
-    <row r="53" spans="1:28">
+      <c r="AC52">
+        <f t="shared" si="0"/>
+        <v>1.4045415406859507</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29">
       <c r="A53" s="8">
         <v>32295</v>
       </c>
@@ -5281,8 +5463,12 @@
       <c r="AB53" s="9">
         <v>16532164</v>
       </c>
-    </row>
-    <row r="54" spans="1:28">
+      <c r="AC53">
+        <f t="shared" si="0"/>
+        <v>1.3994103252302603</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29">
       <c r="A54" s="8">
         <v>32387</v>
       </c>
@@ -5367,8 +5553,12 @@
       <c r="AB54" s="9">
         <v>16612639</v>
       </c>
-    </row>
-    <row r="55" spans="1:28">
+      <c r="AC54">
+        <f t="shared" si="0"/>
+        <v>1.3926312971707866</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29">
       <c r="A55" s="8">
         <v>32478</v>
       </c>
@@ -5453,8 +5643,12 @@
       <c r="AB55" s="9">
         <v>16687082</v>
       </c>
-    </row>
-    <row r="56" spans="1:28">
+      <c r="AC55">
+        <f t="shared" si="0"/>
+        <v>1.3864186081185434</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29">
       <c r="A56" s="8">
         <v>32568</v>
       </c>
@@ -5539,8 +5733,12 @@
       <c r="AB56" s="9">
         <v>16764042</v>
       </c>
-    </row>
-    <row r="57" spans="1:28">
+      <c r="AC56">
+        <f t="shared" si="0"/>
+        <v>1.3800538676770198</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29">
       <c r="A57" s="8">
         <v>32660</v>
       </c>
@@ -5625,8 +5823,12 @@
       <c r="AB57" s="9">
         <v>16814416</v>
       </c>
-    </row>
-    <row r="58" spans="1:28">
+      <c r="AC57">
+        <f t="shared" si="0"/>
+        <v>1.3759193896475501</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29">
       <c r="A58" s="8">
         <v>32752</v>
       </c>
@@ -5711,8 +5913,12 @@
       <c r="AB58" s="9">
         <v>16872038</v>
       </c>
-    </row>
-    <row r="59" spans="1:28">
+      <c r="AC58">
+        <f t="shared" si="0"/>
+        <v>1.3712202995275378</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29">
       <c r="A59" s="8">
         <v>32843</v>
       </c>
@@ -5797,8 +6003,12 @@
       <c r="AB59" s="9">
         <v>16936723</v>
       </c>
-    </row>
-    <row r="60" spans="1:28">
+      <c r="AC59">
+        <f t="shared" si="0"/>
+        <v>1.365983313300926</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29">
       <c r="A60" s="8">
         <v>32933</v>
       </c>
@@ -5883,8 +6093,12 @@
       <c r="AB60" s="9">
         <v>17005636</v>
       </c>
-    </row>
-    <row r="61" spans="1:28">
+      <c r="AC60">
+        <f t="shared" si="0"/>
+        <v>1.360447853876209</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29">
       <c r="A61" s="8">
         <v>33025</v>
       </c>
@@ -5969,8 +6183,12 @@
       <c r="AB61" s="9">
         <v>17065128</v>
       </c>
-    </row>
-    <row r="62" spans="1:28">
+      <c r="AC61">
+        <f t="shared" si="0"/>
+        <v>1.3557050963813457</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29">
       <c r="A62" s="8">
         <v>33117</v>
       </c>
@@ -6055,8 +6273,12 @@
       <c r="AB62" s="9">
         <v>17121132</v>
       </c>
-    </row>
-    <row r="63" spans="1:28">
+      <c r="AC62">
+        <f t="shared" si="0"/>
+        <v>1.351270523467724</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29">
       <c r="A63" s="8">
         <v>33208</v>
       </c>
@@ -6141,8 +6363,12 @@
       <c r="AB63" s="9">
         <v>17169768</v>
       </c>
-    </row>
-    <row r="64" spans="1:28">
+      <c r="AC63">
+        <f t="shared" si="0"/>
+        <v>1.3474428425590841</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29">
       <c r="A64" s="8">
         <v>33298</v>
       </c>
@@ -6227,8 +6453,12 @@
       <c r="AB64" s="9">
         <v>17237424</v>
       </c>
-    </row>
-    <row r="65" spans="1:28">
+      <c r="AC64">
+        <f t="shared" si="0"/>
+        <v>1.3421541989104637</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29">
       <c r="A65" s="8">
         <v>33390</v>
       </c>
@@ -6313,8 +6543,12 @@
       <c r="AB65" s="9">
         <v>17284036</v>
       </c>
-    </row>
-    <row r="66" spans="1:28">
+      <c r="AC65">
+        <f t="shared" si="0"/>
+        <v>1.3385346454959941</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29">
       <c r="A66" s="8">
         <v>33482</v>
       </c>
@@ -6399,8 +6633,12 @@
       <c r="AB66" s="9">
         <v>17338859</v>
       </c>
-    </row>
-    <row r="67" spans="1:28">
+      <c r="AC66">
+        <f t="shared" si="0"/>
+        <v>1.3343023897939306</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29">
       <c r="A67" s="8">
         <v>33573</v>
       </c>
@@ -6485,8 +6723,12 @@
       <c r="AB67" s="9">
         <v>17378981</v>
       </c>
-    </row>
-    <row r="68" spans="1:28">
+      <c r="AC67">
+        <f t="shared" si="0"/>
+        <v>1.3312219513905907</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29">
       <c r="A68" s="8">
         <v>33664</v>
       </c>
@@ -6571,8 +6813,12 @@
       <c r="AB68" s="9">
         <v>17441287</v>
       </c>
-    </row>
-    <row r="69" spans="1:28">
+      <c r="AC68">
+        <f t="shared" si="0"/>
+        <v>1.3264663897796074</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29">
       <c r="A69" s="8">
         <v>33756</v>
       </c>
@@ -6657,8 +6903,12 @@
       <c r="AB69" s="9">
         <v>17478635</v>
       </c>
-    </row>
-    <row r="70" spans="1:28">
+      <c r="AC69">
+        <f t="shared" si="0"/>
+        <v>1.3236320227523488</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29">
       <c r="A70" s="8">
         <v>33848</v>
       </c>
@@ -6743,8 +6993,12 @@
       <c r="AB70" s="9">
         <v>17523303</v>
       </c>
-    </row>
-    <row r="71" spans="1:28">
+      <c r="AC70">
+        <f t="shared" si="0"/>
+        <v>1.3202580015879426</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29">
       <c r="A71" s="8">
         <v>33939</v>
       </c>
@@ -6829,8 +7083,12 @@
       <c r="AB71" s="9">
         <v>17557133</v>
       </c>
-    </row>
-    <row r="72" spans="1:28">
+      <c r="AC71">
+        <f t="shared" si="0"/>
+        <v>1.3177140595790895</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29">
       <c r="A72" s="8">
         <v>34029</v>
       </c>
@@ -6915,8 +7173,12 @@
       <c r="AB72" s="9">
         <v>17609552</v>
       </c>
-    </row>
-    <row r="73" spans="1:28">
+      <c r="AC72">
+        <f t="shared" si="0"/>
+        <v>1.313791571756056</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29">
       <c r="A73" s="8">
         <v>34121</v>
       </c>
@@ -7001,8 +7263,12 @@
       <c r="AB73" s="9">
         <v>17634808</v>
       </c>
-    </row>
-    <row r="74" spans="1:28">
+      <c r="AC73">
+        <f t="shared" si="0"/>
+        <v>1.3119100020822456</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29">
       <c r="A74" s="8">
         <v>34213</v>
       </c>
@@ -7087,8 +7353,12 @@
       <c r="AB74" s="9">
         <v>17683713</v>
       </c>
-    </row>
-    <row r="75" spans="1:28">
+      <c r="AC74">
+        <f t="shared" si="0"/>
+        <v>1.3082818636561224</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29">
       <c r="A75" s="8">
         <v>34304</v>
       </c>
@@ -7173,8 +7443,12 @@
       <c r="AB75" s="9">
         <v>17719090</v>
       </c>
-    </row>
-    <row r="76" spans="1:28">
+      <c r="AC75">
+        <f t="shared" si="0"/>
+        <v>1.305669817129435</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29">
       <c r="A76" s="8">
         <v>34394</v>
       </c>
@@ -7259,8 +7533,12 @@
       <c r="AB76" s="9">
         <v>17772078</v>
       </c>
-    </row>
-    <row r="77" spans="1:28">
+      <c r="AC76">
+        <f t="shared" ref="AC76:AC139" si="1">$AB$153/AB76</f>
+        <v>1.3017769222034699</v>
+      </c>
+    </row>
+    <row r="77" spans="1:29">
       <c r="A77" s="8">
         <v>34486</v>
       </c>
@@ -7345,8 +7623,12 @@
       <c r="AB77" s="9">
         <v>17805468</v>
       </c>
-    </row>
-    <row r="78" spans="1:28">
+      <c r="AC77">
+        <f t="shared" si="1"/>
+        <v>1.2993357433795056</v>
+      </c>
+    </row>
+    <row r="78" spans="1:29">
       <c r="A78" s="8">
         <v>34578</v>
       </c>
@@ -7431,8 +7713,12 @@
       <c r="AB78" s="9">
         <v>17859257</v>
       </c>
-    </row>
-    <row r="79" spans="1:28">
+      <c r="AC78">
+        <f t="shared" si="1"/>
+        <v>1.2954223683549657</v>
+      </c>
+    </row>
+    <row r="79" spans="1:29">
       <c r="A79" s="8">
         <v>34669</v>
       </c>
@@ -7517,8 +7803,12 @@
       <c r="AB79" s="9">
         <v>17893433</v>
       </c>
-    </row>
-    <row r="80" spans="1:28">
+      <c r="AC79">
+        <f t="shared" si="1"/>
+        <v>1.2929481447187916</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29">
       <c r="A80" s="8">
         <v>34759</v>
       </c>
@@ -7603,8 +7893,12 @@
       <c r="AB80" s="9">
         <v>17951550</v>
       </c>
-    </row>
-    <row r="81" spans="1:28">
+      <c r="AC80">
+        <f t="shared" si="1"/>
+        <v>1.288762307433063</v>
+      </c>
+    </row>
+    <row r="81" spans="1:29">
       <c r="A81" s="8">
         <v>34851</v>
       </c>
@@ -7689,8 +7983,12 @@
       <c r="AB81" s="9">
         <v>18004882</v>
       </c>
-    </row>
-    <row r="82" spans="1:28">
+      <c r="AC81">
+        <f t="shared" si="1"/>
+        <v>1.2849448832822119</v>
+      </c>
+    </row>
+    <row r="82" spans="1:29">
       <c r="A82" s="8">
         <v>34943</v>
       </c>
@@ -7775,8 +8073,12 @@
       <c r="AB82" s="9">
         <v>18062176</v>
       </c>
-    </row>
-    <row r="83" spans="1:28">
+      <c r="AC82">
+        <f t="shared" si="1"/>
+        <v>1.2808689827847985</v>
+      </c>
+    </row>
+    <row r="83" spans="1:29">
       <c r="A83" s="8">
         <v>35034</v>
       </c>
@@ -7861,8 +8163,12 @@
       <c r="AB83" s="9">
         <v>18119616</v>
       </c>
-    </row>
-    <row r="84" spans="1:28">
+      <c r="AC83">
+        <f t="shared" si="1"/>
+        <v>1.2768085703361485</v>
+      </c>
+    </row>
+    <row r="84" spans="1:29">
       <c r="A84" s="8">
         <v>35125</v>
       </c>
@@ -7947,8 +8253,12 @@
       <c r="AB84" s="9">
         <v>18175986</v>
       </c>
-    </row>
-    <row r="85" spans="1:28">
+      <c r="AC84">
+        <f t="shared" si="1"/>
+        <v>1.2728487466924765</v>
+      </c>
+    </row>
+    <row r="85" spans="1:29">
       <c r="A85" s="8">
         <v>35217</v>
       </c>
@@ -8033,8 +8343,12 @@
       <c r="AB85" s="9">
         <v>18224767</v>
       </c>
-    </row>
-    <row r="86" spans="1:28">
+      <c r="AC85">
+        <f t="shared" si="1"/>
+        <v>1.2694417986249151</v>
+      </c>
+    </row>
+    <row r="86" spans="1:29">
       <c r="A86" s="8">
         <v>35309</v>
       </c>
@@ -8119,8 +8433,12 @@
       <c r="AB86" s="9">
         <v>18281323</v>
       </c>
-    </row>
-    <row r="87" spans="1:28">
+      <c r="AC86">
+        <f t="shared" si="1"/>
+        <v>1.2655145910391714</v>
+      </c>
+    </row>
+    <row r="87" spans="1:29">
       <c r="A87" s="8">
         <v>35400</v>
       </c>
@@ -8205,8 +8523,12 @@
       <c r="AB87" s="9">
         <v>18330079</v>
       </c>
-    </row>
-    <row r="88" spans="1:28">
+      <c r="AC87">
+        <f t="shared" si="1"/>
+        <v>1.262148461007724</v>
+      </c>
+    </row>
+    <row r="88" spans="1:29">
       <c r="A88" s="8">
         <v>35490</v>
       </c>
@@ -8291,8 +8613,12 @@
       <c r="AB88" s="9">
         <v>18388710</v>
       </c>
-    </row>
-    <row r="89" spans="1:28">
+      <c r="AC88">
+        <f t="shared" si="1"/>
+        <v>1.2581241968577459</v>
+      </c>
+    </row>
+    <row r="89" spans="1:29">
       <c r="A89" s="8">
         <v>35582</v>
       </c>
@@ -8377,8 +8703,12 @@
       <c r="AB89" s="9">
         <v>18423037</v>
       </c>
-    </row>
-    <row r="90" spans="1:28">
+      <c r="AC89">
+        <f t="shared" si="1"/>
+        <v>1.2557799780785328</v>
+      </c>
+    </row>
+    <row r="90" spans="1:29">
       <c r="A90" s="8">
         <v>35674</v>
       </c>
@@ -8463,8 +8793,12 @@
       <c r="AB90" s="9">
         <v>18468718</v>
       </c>
-    </row>
-    <row r="91" spans="1:28">
+      <c r="AC90">
+        <f t="shared" si="1"/>
+        <v>1.2526738997260123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:29">
       <c r="A91" s="8">
         <v>35765</v>
       </c>
@@ -8549,8 +8883,12 @@
       <c r="AB91" s="9">
         <v>18510004</v>
       </c>
-    </row>
-    <row r="92" spans="1:28">
+      <c r="AC91">
+        <f t="shared" si="1"/>
+        <v>1.2498798487563807</v>
+      </c>
+    </row>
+    <row r="92" spans="1:29">
       <c r="A92" s="8">
         <v>35855</v>
       </c>
@@ -8635,8 +8973,12 @@
       <c r="AB92" s="9">
         <v>18572416</v>
       </c>
-    </row>
-    <row r="93" spans="1:28">
+      <c r="AC92">
+        <f t="shared" si="1"/>
+        <v>1.2456796681702584</v>
+      </c>
+    </row>
+    <row r="93" spans="1:29">
       <c r="A93" s="8">
         <v>35947</v>
       </c>
@@ -8721,8 +9063,12 @@
       <c r="AB93" s="9">
         <v>18607584</v>
       </c>
-    </row>
-    <row r="94" spans="1:28">
+      <c r="AC93">
+        <f t="shared" si="1"/>
+        <v>1.2433253559408894</v>
+      </c>
+    </row>
+    <row r="94" spans="1:29">
       <c r="A94" s="8">
         <v>36039</v>
       </c>
@@ -8807,8 +9153,12 @@
       <c r="AB94" s="9">
         <v>18658381</v>
       </c>
-    </row>
-    <row r="95" spans="1:28">
+      <c r="AC94">
+        <f t="shared" si="1"/>
+        <v>1.2399404321307406</v>
+      </c>
+    </row>
+    <row r="95" spans="1:29">
       <c r="A95" s="8">
         <v>36130</v>
       </c>
@@ -8893,8 +9243,12 @@
       <c r="AB95" s="9">
         <v>18705620</v>
       </c>
-    </row>
-    <row r="96" spans="1:28">
+      <c r="AC95">
+        <f t="shared" si="1"/>
+        <v>1.2368090980143935</v>
+      </c>
+    </row>
+    <row r="96" spans="1:29">
       <c r="A96" s="8">
         <v>36220</v>
       </c>
@@ -8979,8 +9333,12 @@
       <c r="AB96" s="9">
         <v>18770525</v>
       </c>
-    </row>
-    <row r="97" spans="1:28">
+      <c r="AC96">
+        <f t="shared" si="1"/>
+        <v>1.2325324411544163</v>
+      </c>
+    </row>
+    <row r="97" spans="1:29">
       <c r="A97" s="8">
         <v>36312</v>
       </c>
@@ -9065,8 +9423,12 @@
       <c r="AB97" s="9">
         <v>18812264</v>
       </c>
-    </row>
-    <row r="98" spans="1:28">
+      <c r="AC97">
+        <f t="shared" si="1"/>
+        <v>1.2297978063671655</v>
+      </c>
+    </row>
+    <row r="98" spans="1:29">
       <c r="A98" s="8">
         <v>36404</v>
       </c>
@@ -9151,8 +9513,12 @@
       <c r="AB98" s="9">
         <v>18867680</v>
       </c>
-    </row>
-    <row r="99" spans="1:28">
+      <c r="AC98">
+        <f t="shared" si="1"/>
+        <v>1.2261857843677655</v>
+      </c>
+    </row>
+    <row r="99" spans="1:29">
       <c r="A99" s="8">
         <v>36495</v>
       </c>
@@ -9237,8 +9603,12 @@
       <c r="AB99" s="9">
         <v>18919210</v>
       </c>
-    </row>
-    <row r="100" spans="1:28">
+      <c r="AC99">
+        <f t="shared" si="1"/>
+        <v>1.2228460384973792</v>
+      </c>
+    </row>
+    <row r="100" spans="1:29">
       <c r="A100" s="8">
         <v>36586</v>
       </c>
@@ -9323,8 +9693,12 @@
       <c r="AB100" s="9">
         <v>18986711</v>
       </c>
-    </row>
-    <row r="101" spans="1:28">
+      <c r="AC100">
+        <f t="shared" si="1"/>
+        <v>1.2184986120028898</v>
+      </c>
+    </row>
+    <row r="101" spans="1:29">
       <c r="A101" s="8">
         <v>36678</v>
       </c>
@@ -9409,8 +9783,12 @@
       <c r="AB101" s="9">
         <v>19028802</v>
       </c>
-    </row>
-    <row r="102" spans="1:28">
+      <c r="AC101">
+        <f t="shared" si="1"/>
+        <v>1.215803338539126</v>
+      </c>
+    </row>
+    <row r="102" spans="1:29">
       <c r="A102" s="8">
         <v>36770</v>
       </c>
@@ -9495,8 +9873,12 @@
       <c r="AB102" s="9">
         <v>19086040</v>
       </c>
-    </row>
-    <row r="103" spans="1:28">
+      <c r="AC102">
+        <f t="shared" si="1"/>
+        <v>1.2121572101913232</v>
+      </c>
+    </row>
+    <row r="103" spans="1:29">
       <c r="A103" s="8">
         <v>36861</v>
       </c>
@@ -9581,8 +9963,12 @@
       <c r="AB103" s="9">
         <v>19141036</v>
       </c>
-    </row>
-    <row r="104" spans="1:28">
+      <c r="AC103">
+        <f t="shared" si="1"/>
+        <v>1.2086744416550912</v>
+      </c>
+    </row>
+    <row r="104" spans="1:29">
       <c r="A104" s="8">
         <v>36951</v>
       </c>
@@ -9667,8 +10053,12 @@
       <c r="AB104" s="9">
         <v>19225181</v>
       </c>
-    </row>
-    <row r="105" spans="1:28">
+      <c r="AC104">
+        <f t="shared" si="1"/>
+        <v>1.2033843010372698</v>
+      </c>
+    </row>
+    <row r="105" spans="1:29">
       <c r="A105" s="8">
         <v>37043</v>
       </c>
@@ -9753,8 +10143,12 @@
       <c r="AB105" s="9">
         <v>19274701</v>
       </c>
-    </row>
-    <row r="106" spans="1:28">
+      <c r="AC105">
+        <f t="shared" si="1"/>
+        <v>1.2002926011666797</v>
+      </c>
+    </row>
+    <row r="106" spans="1:29">
       <c r="A106" s="8">
         <v>37135</v>
       </c>
@@ -9839,8 +10233,12 @@
       <c r="AB106" s="9">
         <v>19329107</v>
       </c>
-    </row>
-    <row r="107" spans="1:28">
+      <c r="AC106">
+        <f t="shared" si="1"/>
+        <v>1.1969141150700857</v>
+      </c>
+    </row>
+    <row r="107" spans="1:29">
       <c r="A107" s="8">
         <v>37226</v>
       </c>
@@ -9925,8 +10323,12 @@
       <c r="AB107" s="9">
         <v>19386461</v>
       </c>
-    </row>
-    <row r="108" spans="1:28">
+      <c r="AC107">
+        <f t="shared" si="1"/>
+        <v>1.1933730968225711</v>
+      </c>
+    </row>
+    <row r="108" spans="1:29">
       <c r="A108" s="8">
         <v>37316</v>
       </c>
@@ -10011,8 +10413,12 @@
       <c r="AB108" s="9">
         <v>19453350</v>
       </c>
-    </row>
-    <row r="109" spans="1:28">
+      <c r="AC108">
+        <f t="shared" si="1"/>
+        <v>1.1892697658758002</v>
+      </c>
+    </row>
+    <row r="109" spans="1:29">
       <c r="A109" s="8">
         <v>37408</v>
       </c>
@@ -10097,8 +10503,12 @@
       <c r="AB109" s="9">
         <v>19495210</v>
       </c>
-    </row>
-    <row r="110" spans="1:28">
+      <c r="AC109">
+        <f t="shared" si="1"/>
+        <v>1.186716172844509</v>
+      </c>
+    </row>
+    <row r="110" spans="1:29">
       <c r="A110" s="8">
         <v>37500</v>
       </c>
@@ -10183,8 +10593,12 @@
       <c r="AB110" s="9">
         <v>19548871</v>
       </c>
-    </row>
-    <row r="111" spans="1:28">
+      <c r="AC110">
+        <f t="shared" si="1"/>
+        <v>1.1834586764626971</v>
+      </c>
+    </row>
+    <row r="111" spans="1:29">
       <c r="A111" s="8">
         <v>37591</v>
       </c>
@@ -10269,8 +10683,12 @@
       <c r="AB111" s="9">
         <v>19605441</v>
       </c>
-    </row>
-    <row r="112" spans="1:28">
+      <c r="AC111">
+        <f t="shared" si="1"/>
+        <v>1.1800438969977773</v>
+      </c>
+    </row>
+    <row r="112" spans="1:29">
       <c r="A112" s="8">
         <v>37681</v>
       </c>
@@ -10355,8 +10773,12 @@
       <c r="AB112" s="9">
         <v>19676628</v>
       </c>
-    </row>
-    <row r="113" spans="1:28">
+      <c r="AC112">
+        <f t="shared" si="1"/>
+        <v>1.175774680499118</v>
+      </c>
+    </row>
+    <row r="113" spans="1:29">
       <c r="A113" s="8">
         <v>37773</v>
       </c>
@@ -10441,8 +10863,12 @@
       <c r="AB113" s="9">
         <v>19720737</v>
       </c>
-    </row>
-    <row r="114" spans="1:28">
+      <c r="AC113">
+        <f t="shared" si="1"/>
+        <v>1.1731448474770492</v>
+      </c>
+    </row>
+    <row r="114" spans="1:29">
       <c r="A114" s="8">
         <v>37865</v>
       </c>
@@ -10527,8 +10953,12 @@
       <c r="AB114" s="9">
         <v>19773429</v>
       </c>
-    </row>
-    <row r="115" spans="1:28">
+      <c r="AC114">
+        <f t="shared" si="1"/>
+        <v>1.170018664946783</v>
+      </c>
+    </row>
+    <row r="115" spans="1:29">
       <c r="A115" s="8">
         <v>37956</v>
       </c>
@@ -10613,8 +11043,12 @@
       <c r="AB115" s="9">
         <v>19827155</v>
       </c>
-    </row>
-    <row r="116" spans="1:28">
+      <c r="AC115">
+        <f t="shared" si="1"/>
+        <v>1.1668482442387724</v>
+      </c>
+    </row>
+    <row r="116" spans="1:29">
       <c r="A116" s="8">
         <v>38047</v>
       </c>
@@ -10699,8 +11133,12 @@
       <c r="AB116" s="9">
         <v>19894105</v>
       </c>
-    </row>
-    <row r="117" spans="1:28">
+      <c r="AC116">
+        <f t="shared" si="1"/>
+        <v>1.1629214282321321</v>
+      </c>
+    </row>
+    <row r="117" spans="1:29">
       <c r="A117" s="8">
         <v>38139</v>
       </c>
@@ -10785,8 +11223,12 @@
       <c r="AB117" s="9">
         <v>19932722</v>
       </c>
-    </row>
-    <row r="118" spans="1:28">
+      <c r="AC117">
+        <f t="shared" si="1"/>
+        <v>1.1606684225064696</v>
+      </c>
+    </row>
+    <row r="118" spans="1:29">
       <c r="A118" s="8">
         <v>38231</v>
       </c>
@@ -10871,8 +11313,12 @@
       <c r="AB118" s="9">
         <v>19989677</v>
       </c>
-    </row>
-    <row r="119" spans="1:28">
+      <c r="AC118">
+        <f t="shared" si="1"/>
+        <v>1.157361422098016</v>
+      </c>
+    </row>
+    <row r="119" spans="1:29">
       <c r="A119" s="8">
         <v>38322</v>
       </c>
@@ -10957,8 +11403,12 @@
       <c r="AB119" s="9">
         <v>20046003</v>
       </c>
-    </row>
-    <row r="120" spans="1:28">
+      <c r="AC119">
+        <f t="shared" si="1"/>
+        <v>1.1541094252056132</v>
+      </c>
+    </row>
+    <row r="120" spans="1:29">
       <c r="A120" s="8">
         <v>38412</v>
       </c>
@@ -11043,8 +11493,12 @@
       <c r="AB120" s="9">
         <v>20126553</v>
       </c>
-    </row>
-    <row r="121" spans="1:28">
+      <c r="AC120">
+        <f t="shared" si="1"/>
+        <v>1.1494904765858316</v>
+      </c>
+    </row>
+    <row r="121" spans="1:29">
       <c r="A121" s="8">
         <v>38504</v>
       </c>
@@ -11129,8 +11583,12 @@
       <c r="AB121" s="9">
         <v>20176844</v>
       </c>
-    </row>
-    <row r="122" spans="1:28">
+      <c r="AC121">
+        <f t="shared" si="1"/>
+        <v>1.1466253592484534</v>
+      </c>
+    </row>
+    <row r="122" spans="1:29">
       <c r="A122" s="8">
         <v>38596</v>
       </c>
@@ -11215,8 +11673,12 @@
       <c r="AB122" s="9">
         <v>20244727</v>
       </c>
-    </row>
-    <row r="123" spans="1:28">
+      <c r="AC122">
+        <f t="shared" si="1"/>
+        <v>1.1427805867671121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:29">
       <c r="A123" s="8">
         <v>38687</v>
       </c>
@@ -11301,8 +11763,12 @@
       <c r="AB123" s="9">
         <v>20311543</v>
       </c>
-    </row>
-    <row r="124" spans="1:28">
+      <c r="AC123">
+        <f t="shared" si="1"/>
+        <v>1.1390213436763519</v>
+      </c>
+    </row>
+    <row r="124" spans="1:29">
       <c r="A124" s="8">
         <v>38777</v>
       </c>
@@ -11387,8 +11853,12 @@
       <c r="AB124" s="9">
         <v>20398132</v>
       </c>
-    </row>
-    <row r="125" spans="1:28">
+      <c r="AC124">
+        <f t="shared" si="1"/>
+        <v>1.1341862578396884</v>
+      </c>
+    </row>
+    <row r="125" spans="1:29">
       <c r="A125" s="8">
         <v>38869</v>
       </c>
@@ -11473,8 +11943,12 @@
       <c r="AB125" s="9">
         <v>20450966</v>
       </c>
-    </row>
-    <row r="126" spans="1:28">
+      <c r="AC125">
+        <f t="shared" si="1"/>
+        <v>1.1312561470201457</v>
+      </c>
+    </row>
+    <row r="126" spans="1:29">
       <c r="A126" s="8">
         <v>38961</v>
       </c>
@@ -11559,8 +12033,12 @@
       <c r="AB126" s="9">
         <v>20542282</v>
       </c>
-    </row>
-    <row r="127" spans="1:28">
+      <c r="AC126">
+        <f t="shared" si="1"/>
+        <v>1.1262274074516161</v>
+      </c>
+    </row>
+    <row r="127" spans="1:29">
       <c r="A127" s="8">
         <v>39052</v>
       </c>
@@ -11645,8 +12123,12 @@
       <c r="AB127" s="9">
         <v>20627547</v>
       </c>
-    </row>
-    <row r="128" spans="1:28">
+      <c r="AC127">
+        <f t="shared" si="1"/>
+        <v>1.1215720899823911</v>
+      </c>
+    </row>
+    <row r="128" spans="1:29">
       <c r="A128" s="8">
         <v>39142</v>
       </c>
@@ -11731,8 +12213,12 @@
       <c r="AB128" s="9">
         <v>20742817</v>
       </c>
-    </row>
-    <row r="129" spans="1:28">
+      <c r="AC128">
+        <f t="shared" si="1"/>
+        <v>1.1153393967656371</v>
+      </c>
+    </row>
+    <row r="129" spans="1:29">
       <c r="A129" s="8">
         <v>39234</v>
       </c>
@@ -11817,8 +12303,12 @@
       <c r="AB129" s="9">
         <v>20827622</v>
       </c>
-    </row>
-    <row r="130" spans="1:28">
+      <c r="AC129">
+        <f t="shared" si="1"/>
+        <v>1.1107980066087237</v>
+      </c>
+    </row>
+    <row r="130" spans="1:29">
       <c r="A130" s="8">
         <v>39326</v>
       </c>
@@ -11903,8 +12393,12 @@
       <c r="AB130" s="9">
         <v>20924160</v>
       </c>
-    </row>
-    <row r="131" spans="1:28">
+      <c r="AC130">
+        <f t="shared" si="1"/>
+        <v>1.1056731070685752</v>
+      </c>
+    </row>
+    <row r="131" spans="1:29">
       <c r="A131" s="8">
         <v>39417</v>
       </c>
@@ -11989,8 +12483,12 @@
       <c r="AB131" s="9">
         <v>21016121</v>
       </c>
-    </row>
-    <row r="132" spans="1:28">
+      <c r="AC131">
+        <f t="shared" si="1"/>
+        <v>1.1008349733045408</v>
+      </c>
+    </row>
+    <row r="132" spans="1:29">
       <c r="A132" s="8">
         <v>39508</v>
       </c>
@@ -12075,8 +12573,12 @@
       <c r="AB132" s="9">
         <v>21148928</v>
       </c>
-    </row>
-    <row r="133" spans="1:28">
+      <c r="AC132">
+        <f t="shared" si="1"/>
+        <v>1.093922160026267</v>
+      </c>
+    </row>
+    <row r="133" spans="1:29">
       <c r="A133" s="8">
         <v>39600</v>
       </c>
@@ -12161,8 +12663,12 @@
       <c r="AB133" s="9">
         <v>21249199</v>
       </c>
-    </row>
-    <row r="134" spans="1:28">
+      <c r="AC133">
+        <f t="shared" si="1"/>
+        <v>1.0887601457353757</v>
+      </c>
+    </row>
+    <row r="134" spans="1:29">
       <c r="A134" s="8">
         <v>39692</v>
       </c>
@@ -12247,8 +12753,12 @@
       <c r="AB134" s="9">
         <v>21366049</v>
       </c>
-    </row>
-    <row r="135" spans="1:28">
+      <c r="AC134">
+        <f t="shared" si="1"/>
+        <v>1.0828057634801829</v>
+      </c>
+    </row>
+    <row r="135" spans="1:29">
       <c r="A135" s="8">
         <v>39783</v>
       </c>
@@ -12333,8 +12843,12 @@
       <c r="AB135" s="9">
         <v>21475625</v>
       </c>
-    </row>
-    <row r="136" spans="1:28">
+      <c r="AC135">
+        <f t="shared" si="1"/>
+        <v>1.0772809173190536</v>
+      </c>
+    </row>
+    <row r="136" spans="1:29">
       <c r="A136" s="8">
         <v>39873</v>
       </c>
@@ -12419,8 +12933,12 @@
       <c r="AB136" s="9">
         <v>21601676</v>
       </c>
-    </row>
-    <row r="137" spans="1:28">
+      <c r="AC136">
+        <f t="shared" si="1"/>
+        <v>1.0709947228168777</v>
+      </c>
+    </row>
+    <row r="137" spans="1:29">
       <c r="A137" s="8">
         <v>39965</v>
       </c>
@@ -12505,8 +13023,12 @@
       <c r="AB137" s="9">
         <v>21691653</v>
       </c>
-    </row>
-    <row r="138" spans="1:28">
+      <c r="AC137">
+        <f t="shared" si="1"/>
+        <v>1.0665522355534638</v>
+      </c>
+    </row>
+    <row r="138" spans="1:29">
       <c r="A138" s="8">
         <v>40057</v>
       </c>
@@ -12591,8 +13113,12 @@
       <c r="AB138" s="9">
         <v>21788088</v>
       </c>
-    </row>
-    <row r="139" spans="1:28">
+      <c r="AC138">
+        <f t="shared" si="1"/>
+        <v>1.0618316302008695</v>
+      </c>
+    </row>
+    <row r="139" spans="1:29">
       <c r="A139" s="8">
         <v>40148</v>
       </c>
@@ -12677,8 +13203,12 @@
       <c r="AB139" s="9">
         <v>21865623</v>
       </c>
-    </row>
-    <row r="140" spans="1:28">
+      <c r="AC139">
+        <f t="shared" si="1"/>
+        <v>1.0580663994801338</v>
+      </c>
+    </row>
+    <row r="140" spans="1:29">
       <c r="A140" s="8">
         <v>40238</v>
       </c>
@@ -12763,8 +13293,12 @@
       <c r="AB140" s="9">
         <v>21964097</v>
       </c>
-    </row>
-    <row r="141" spans="1:28">
+      <c r="AC140">
+        <f t="shared" ref="AC140:AC154" si="2">$AB$153/AB140</f>
+        <v>1.0533226565153122</v>
+      </c>
+    </row>
+    <row r="141" spans="1:29">
       <c r="A141" s="8">
         <v>40330</v>
       </c>
@@ -12849,8 +13383,12 @@
       <c r="AB141" s="9">
         <v>22031750</v>
       </c>
-    </row>
-    <row r="142" spans="1:28">
+      <c r="AC141">
+        <f t="shared" si="2"/>
+        <v>1.050088213600826</v>
+      </c>
+    </row>
+    <row r="142" spans="1:29">
       <c r="A142" s="8">
         <v>40422</v>
       </c>
@@ -12935,8 +13473,12 @@
       <c r="AB142" s="9">
         <v>22104402</v>
       </c>
-    </row>
-    <row r="143" spans="1:28">
+      <c r="AC142">
+        <f t="shared" si="2"/>
+        <v>1.046636819218181</v>
+      </c>
+    </row>
+    <row r="143" spans="1:29">
       <c r="A143" s="8">
         <v>40513</v>
       </c>
@@ -13021,8 +13563,12 @@
       <c r="AB143" s="9">
         <v>22172469</v>
       </c>
-    </row>
-    <row r="144" spans="1:28">
+      <c r="AC143">
+        <f t="shared" si="2"/>
+        <v>1.0434237612419257</v>
+      </c>
+    </row>
+    <row r="144" spans="1:29">
       <c r="A144" s="8">
         <v>40603</v>
       </c>
@@ -13107,8 +13653,12 @@
       <c r="AB144" s="9">
         <v>22268758</v>
       </c>
-    </row>
-    <row r="145" spans="1:28">
+      <c r="AC144">
+        <f t="shared" si="2"/>
+        <v>1.0389120488893004</v>
+      </c>
+    </row>
+    <row r="145" spans="1:29">
       <c r="A145" s="8">
         <v>40695</v>
       </c>
@@ -13193,8 +13743,12 @@
       <c r="AB145" s="9">
         <v>22340024</v>
       </c>
-    </row>
-    <row r="146" spans="1:28">
+      <c r="AC145">
+        <f t="shared" si="2"/>
+        <v>1.0355978579074041</v>
+      </c>
+    </row>
+    <row r="146" spans="1:29">
       <c r="A146" s="8">
         <v>40787</v>
       </c>
@@ -13279,8 +13833,12 @@
       <c r="AB146" s="9">
         <v>22432039</v>
       </c>
-    </row>
-    <row r="147" spans="1:28">
+      <c r="AC146">
+        <f t="shared" si="2"/>
+        <v>1.0313498920004553</v>
+      </c>
+    </row>
+    <row r="147" spans="1:29">
       <c r="A147" s="8">
         <v>40878</v>
       </c>
@@ -13365,8 +13923,12 @@
       <c r="AB147" s="9">
         <v>22520298</v>
       </c>
-    </row>
-    <row r="148" spans="1:28">
+      <c r="AC147">
+        <f t="shared" si="2"/>
+        <v>1.0273079423726985</v>
+      </c>
+    </row>
+    <row r="148" spans="1:29">
       <c r="A148" s="8">
         <v>40969</v>
       </c>
@@ -13451,8 +14013,12 @@
       <c r="AB148" s="9">
         <v>22637127</v>
       </c>
-    </row>
-    <row r="149" spans="1:28">
+      <c r="AC148">
+        <f t="shared" si="2"/>
+        <v>1.0220060611048389</v>
+      </c>
+    </row>
+    <row r="149" spans="1:29">
       <c r="A149" s="8">
         <v>41061</v>
       </c>
@@ -13537,8 +14103,12 @@
       <c r="AB149" s="9">
         <v>22728254</v>
       </c>
-    </row>
-    <row r="150" spans="1:28">
+      <c r="AC149">
+        <f t="shared" si="2"/>
+        <v>1.0179084147862831</v>
+      </c>
+    </row>
+    <row r="150" spans="1:29">
       <c r="A150" s="8">
         <v>41153</v>
       </c>
@@ -13623,8 +14193,12 @@
       <c r="AB150" s="9">
         <v>22830391</v>
       </c>
-    </row>
-    <row r="151" spans="1:28">
+      <c r="AC150">
+        <f t="shared" si="2"/>
+        <v>1.0133545676024558</v>
+      </c>
+    </row>
+    <row r="151" spans="1:29">
       <c r="A151" s="8">
         <v>41244</v>
       </c>
@@ -13709,8 +14283,12 @@
       <c r="AB151" s="9">
         <v>22924800</v>
       </c>
-    </row>
-    <row r="152" spans="1:28">
+      <c r="AC151">
+        <f t="shared" si="2"/>
+        <v>1.0091813669039642</v>
+      </c>
+    </row>
+    <row r="152" spans="1:29">
       <c r="A152" s="8">
         <v>41334</v>
       </c>
@@ -13795,8 +14373,12 @@
       <c r="AB152" s="9">
         <v>23039549</v>
       </c>
-    </row>
-    <row r="153" spans="1:28">
+      <c r="AC152">
+        <f t="shared" si="2"/>
+        <v>1.0041551160571762</v>
+      </c>
+    </row>
+    <row r="153" spans="1:29">
       <c r="A153" s="8">
         <v>41426</v>
       </c>
@@ -13881,8 +14463,12 @@
       <c r="AB153" s="9">
         <v>23135281</v>
       </c>
-    </row>
-    <row r="154" spans="1:28">
+      <c r="AC153">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:29">
       <c r="A154" s="8">
         <v>41518</v>
       </c>
@@ -13966,6 +14552,10 @@
       </c>
       <c r="AB154" s="9">
         <v>23235837</v>
+      </c>
+      <c r="AC154">
+        <f t="shared" si="2"/>
+        <v>0.99567237453077329</v>
       </c>
     </row>
   </sheetData>
